--- a/dataanalysis/data/predictions/1200/08271138_1147.xlsx
+++ b/dataanalysis/data/predictions/1200/08271138_1147.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="185">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-27</t>
   </si>
   <si>
@@ -566,12 +569,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -929,13 +926,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AI101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,19 +1035,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>1.92</v>
@@ -1068,7 +1068,7 @@
         <v>38860.86</v>
       </c>
       <c r="J2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K2">
         <v>7</v>
@@ -1109,8 +1109,23 @@
       <c r="W2">
         <v>0.13</v>
       </c>
+      <c r="X2">
+        <v>-0.17</v>
+      </c>
+      <c r="Y2">
+        <v>12</v>
+      </c>
+      <c r="Z2">
+        <v>-1.64</v>
+      </c>
       <c r="AC2" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1118,22 +1133,25 @@
       <c r="AG2">
         <v>3.298805236816406</v>
       </c>
-      <c r="AH2" t="s">
-        <v>184</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300033</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>2.36</v>
@@ -1151,7 +1169,7 @@
         <v>436674.1</v>
       </c>
       <c r="J3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -1192,8 +1210,23 @@
       <c r="W3">
         <v>0.35</v>
       </c>
+      <c r="X3">
+        <v>1.76</v>
+      </c>
+      <c r="Y3">
+        <v>407.2</v>
+      </c>
+      <c r="Z3">
+        <v>-1.04</v>
+      </c>
       <c r="AC3" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1201,22 +1234,25 @@
       <c r="AG3">
         <v>5.434108734130859</v>
       </c>
-      <c r="AH3" t="s">
-        <v>184</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300057</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-2.34</v>
@@ -1234,7 +1270,7 @@
         <v>41726.64</v>
       </c>
       <c r="J4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1275,8 +1311,23 @@
       <c r="W4">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="X4">
+        <v>-1.55</v>
+      </c>
+      <c r="Y4">
+        <v>6.59</v>
+      </c>
+      <c r="Z4">
+        <v>-1.2</v>
+      </c>
       <c r="AC4" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1284,22 +1335,25 @@
       <c r="AG4">
         <v>-1.026825904846191</v>
       </c>
-      <c r="AH4" t="s">
-        <v>184</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>2.06</v>
@@ -1317,7 +1371,7 @@
         <v>90236.44</v>
       </c>
       <c r="J5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K5">
         <v>15</v>
@@ -1358,8 +1412,23 @@
       <c r="W5">
         <v>0.3</v>
       </c>
+      <c r="X5">
+        <v>-1.3</v>
+      </c>
+      <c r="Y5">
+        <v>8.85</v>
+      </c>
+      <c r="Z5">
+        <v>4.98</v>
+      </c>
       <c r="AC5" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1367,22 +1436,25 @@
       <c r="AG5">
         <v>-2.152474403381348</v>
       </c>
-      <c r="AH5" t="s">
-        <v>184</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300077</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>2.14</v>
@@ -1400,7 +1472,7 @@
         <v>127183.19</v>
       </c>
       <c r="J6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1441,8 +1513,23 @@
       <c r="W6">
         <v>-0.44</v>
       </c>
+      <c r="X6">
+        <v>3.5</v>
+      </c>
+      <c r="Y6">
+        <v>28.49</v>
+      </c>
+      <c r="Z6">
+        <v>-2.36</v>
+      </c>
       <c r="AC6" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1450,22 +1537,25 @@
       <c r="AG6">
         <v>2.892079591751099</v>
       </c>
-      <c r="AH6" t="s">
-        <v>184</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300083</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-0.65</v>
@@ -1483,7 +1573,7 @@
         <v>99580.85000000001</v>
       </c>
       <c r="J7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1524,8 +1614,23 @@
       <c r="W7">
         <v>-0.72</v>
       </c>
+      <c r="X7">
+        <v>0.67</v>
+      </c>
+      <c r="Y7">
+        <v>10.59</v>
+      </c>
+      <c r="Z7">
+        <v>-1.76</v>
+      </c>
       <c r="AC7" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1533,22 +1638,25 @@
       <c r="AG7">
         <v>-4.223174571990967</v>
       </c>
-      <c r="AH7" t="s">
-        <v>184</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300085</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-0.85</v>
@@ -1566,7 +1674,7 @@
         <v>274514.36</v>
       </c>
       <c r="J8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1607,8 +1715,23 @@
       <c r="W8">
         <v>-0.19</v>
       </c>
+      <c r="X8">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="Y8">
+        <v>57.72</v>
+      </c>
+      <c r="Z8">
+        <v>7.27</v>
+      </c>
       <c r="AC8" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1616,22 +1739,25 @@
       <c r="AG8">
         <v>-2.289576053619385</v>
       </c>
-      <c r="AH8" t="s">
-        <v>184</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300113</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0.91</v>
@@ -1649,7 +1775,7 @@
         <v>99946.75</v>
       </c>
       <c r="J9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K9">
         <v>4</v>
@@ -1690,8 +1816,23 @@
       <c r="W9">
         <v>0</v>
       </c>
+      <c r="X9">
+        <v>0.29</v>
+      </c>
+      <c r="Y9">
+        <v>27.85</v>
+      </c>
+      <c r="Z9">
+        <v>-3.43</v>
+      </c>
       <c r="AC9" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1699,22 +1840,25 @@
       <c r="AG9">
         <v>4.316997051239014</v>
       </c>
-      <c r="AH9" t="s">
-        <v>184</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300127</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>2.85</v>
@@ -1732,7 +1876,7 @@
         <v>64116.08</v>
       </c>
       <c r="J10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1773,8 +1917,23 @@
       <c r="W10">
         <v>0.36</v>
       </c>
+      <c r="X10">
+        <v>6.26</v>
+      </c>
+      <c r="Y10">
+        <v>36.3</v>
+      </c>
+      <c r="Z10">
+        <v>8</v>
+      </c>
       <c r="AC10" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1782,22 +1941,25 @@
       <c r="AG10">
         <v>4.936498641967773</v>
       </c>
-      <c r="AH10" t="s">
-        <v>184</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300153</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-0.43</v>
@@ -1815,7 +1977,7 @@
         <v>146462.35</v>
       </c>
       <c r="J11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K11">
         <v>4</v>
@@ -1856,8 +2018,23 @@
       <c r="W11">
         <v>-0.74</v>
       </c>
+      <c r="X11">
+        <v>-1.99</v>
+      </c>
+      <c r="Y11">
+        <v>45.41</v>
+      </c>
+      <c r="Z11">
+        <v>-1.65</v>
+      </c>
       <c r="AC11" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1865,22 +2042,25 @@
       <c r="AG11">
         <v>8.226104736328125</v>
       </c>
-      <c r="AH11" t="s">
-        <v>184</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300158</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-2.01</v>
@@ -1898,7 +2078,7 @@
         <v>70403.16</v>
       </c>
       <c r="J12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K12">
         <v>26</v>
@@ -1939,8 +2119,23 @@
       <c r="W12">
         <v>-0.75</v>
       </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="Z12">
+        <v>-2.48</v>
+      </c>
       <c r="AC12" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1948,22 +2143,25 @@
       <c r="AG12">
         <v>-3.711645603179932</v>
       </c>
-      <c r="AH12" t="s">
-        <v>184</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300184</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>1.64</v>
@@ -1981,7 +2179,7 @@
         <v>87596.87</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K13">
         <v>7</v>
@@ -2022,8 +2220,23 @@
       <c r="W13">
         <v>-0.51</v>
       </c>
+      <c r="X13">
+        <v>3.58</v>
+      </c>
+      <c r="Y13">
+        <v>12.19</v>
+      </c>
+      <c r="Z13">
+        <v>-1.38</v>
+      </c>
       <c r="AC13" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2031,22 +2244,25 @@
       <c r="AG13">
         <v>-0.5966822504997253</v>
       </c>
-      <c r="AH13" t="s">
-        <v>184</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300192</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-9</v>
@@ -2064,7 +2280,7 @@
         <v>183638.21</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -2105,8 +2321,23 @@
       <c r="W14">
         <v>-2.11</v>
       </c>
+      <c r="X14">
+        <v>2.25</v>
+      </c>
+      <c r="Y14">
+        <v>24.57</v>
+      </c>
+      <c r="Z14">
+        <v>2.59</v>
+      </c>
       <c r="AC14" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2114,22 +2345,25 @@
       <c r="AG14">
         <v>0.05306590348482132</v>
       </c>
-      <c r="AH14" t="s">
-        <v>184</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300218</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>15.78</v>
@@ -2147,7 +2381,7 @@
         <v>76506.59</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -2188,8 +2422,23 @@
       <c r="W15">
         <v>0.46</v>
       </c>
+      <c r="X15">
+        <v>-0.55</v>
+      </c>
+      <c r="Y15">
+        <v>26.2</v>
+      </c>
+      <c r="Z15">
+        <v>-0.23</v>
+      </c>
       <c r="AC15" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2197,22 +2446,25 @@
       <c r="AG15">
         <v>-0.2062394022941589</v>
       </c>
-      <c r="AH15" t="s">
-        <v>184</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300222</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>19.98</v>
@@ -2230,7 +2482,7 @@
         <v>251023.41</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -2271,8 +2523,23 @@
       <c r="W16">
         <v>5.48</v>
       </c>
+      <c r="X16">
+        <v>-4.48</v>
+      </c>
+      <c r="Y16">
+        <v>14.37</v>
+      </c>
+      <c r="Z16">
+        <v>-4.64</v>
+      </c>
       <c r="AC16" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2280,22 +2547,25 @@
       <c r="AG16">
         <v>-3.593002557754517</v>
       </c>
-      <c r="AH16" t="s">
-        <v>184</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300224</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>5.3</v>
@@ -2313,7 +2583,7 @@
         <v>138692.26</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K17">
         <v>15</v>
@@ -2354,8 +2624,23 @@
       <c r="W17">
         <v>0.53</v>
       </c>
+      <c r="X17">
+        <v>1.66</v>
+      </c>
+      <c r="Y17">
+        <v>20.26</v>
+      </c>
+      <c r="Z17">
+        <v>4.06</v>
+      </c>
       <c r="AC17" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2363,22 +2648,25 @@
       <c r="AG17">
         <v>4.243228912353516</v>
       </c>
-      <c r="AH17" t="s">
-        <v>184</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300290</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>1.69</v>
@@ -2396,7 +2684,7 @@
         <v>64757.35</v>
       </c>
       <c r="J18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K18">
         <v>6</v>
@@ -2437,8 +2725,23 @@
       <c r="W18">
         <v>0.1</v>
       </c>
+      <c r="X18">
+        <v>7.73</v>
+      </c>
+      <c r="Y18">
+        <v>26.3</v>
+      </c>
+      <c r="Z18">
+        <v>3.99</v>
+      </c>
       <c r="AC18" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2446,22 +2749,25 @@
       <c r="AG18">
         <v>5.081096649169922</v>
       </c>
-      <c r="AH18" t="s">
-        <v>184</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300308</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>6.16</v>
@@ -2479,7 +2785,7 @@
         <v>1225233.41</v>
       </c>
       <c r="J19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K19">
         <v>32</v>
@@ -2520,8 +2826,23 @@
       <c r="W19">
         <v>0.02</v>
       </c>
+      <c r="X19">
+        <v>10.44</v>
+      </c>
+      <c r="Y19">
+        <v>359.58</v>
+      </c>
+      <c r="Z19">
+        <v>7.88</v>
+      </c>
       <c r="AC19" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2529,22 +2850,25 @@
       <c r="AG19">
         <v>0.4230171144008636</v>
       </c>
-      <c r="AH19" t="s">
-        <v>184</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300328</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-0.49</v>
@@ -2562,7 +2886,7 @@
         <v>142071.72</v>
       </c>
       <c r="J20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K20">
         <v>7</v>
@@ -2603,8 +2927,23 @@
       <c r="W20">
         <v>-1.29</v>
       </c>
+      <c r="X20">
+        <v>3.02</v>
+      </c>
+      <c r="Y20">
+        <v>17.78</v>
+      </c>
+      <c r="Z20">
+        <v>-2.25</v>
+      </c>
       <c r="AC20" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2612,22 +2951,25 @@
       <c r="AG20">
         <v>-0.8102763891220093</v>
       </c>
-      <c r="AH20" t="s">
-        <v>184</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300339</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>0.3</v>
@@ -2645,7 +2987,7 @@
         <v>411423.03</v>
       </c>
       <c r="J21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2686,8 +3028,23 @@
       <c r="W21">
         <v>-0.57</v>
       </c>
+      <c r="X21">
+        <v>3.75</v>
+      </c>
+      <c r="Y21">
+        <v>69.2</v>
+      </c>
+      <c r="Z21">
+        <v>3.15</v>
+      </c>
       <c r="AC21" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2695,22 +3052,25 @@
       <c r="AG21">
         <v>4.329586505889893</v>
       </c>
-      <c r="AH21" t="s">
-        <v>184</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300364</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-5.48</v>
@@ -2728,7 +3088,7 @@
         <v>343687.12</v>
       </c>
       <c r="J22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2769,8 +3129,23 @@
       <c r="W22">
         <v>-1.96</v>
       </c>
+      <c r="X22">
+        <v>-3.86</v>
+      </c>
+      <c r="Y22">
+        <v>32.1</v>
+      </c>
+      <c r="Z22">
+        <v>-4.58</v>
+      </c>
       <c r="AC22" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2778,22 +3153,25 @@
       <c r="AG22">
         <v>-1.487232208251953</v>
       </c>
-      <c r="AH22" t="s">
-        <v>184</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300394</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>6.92</v>
@@ -2811,7 +3189,7 @@
         <v>542175.95</v>
       </c>
       <c r="J23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K23">
         <v>22</v>
@@ -2852,8 +3230,23 @@
       <c r="W23">
         <v>0.13</v>
       </c>
+      <c r="X23">
+        <v>20</v>
+      </c>
+      <c r="Y23">
+        <v>180.01</v>
+      </c>
+      <c r="Z23">
+        <v>16.29</v>
+      </c>
       <c r="AC23" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2861,22 +3254,25 @@
       <c r="AG23">
         <v>3.611884117126465</v>
       </c>
-      <c r="AH23" t="s">
-        <v>184</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300409</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>2.43</v>
@@ -2894,7 +3290,7 @@
         <v>79361.77</v>
       </c>
       <c r="J24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K24">
         <v>8</v>
@@ -2935,8 +3331,23 @@
       <c r="W24">
         <v>0.13</v>
       </c>
+      <c r="X24">
+        <v>1.45</v>
+      </c>
+      <c r="Y24">
+        <v>21.69</v>
+      </c>
+      <c r="Z24">
+        <v>-2.95</v>
+      </c>
       <c r="AC24" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2944,22 +3355,25 @@
       <c r="AG24">
         <v>4.22315788269043</v>
       </c>
-      <c r="AH24" t="s">
-        <v>184</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300433</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>3.76</v>
@@ -2977,7 +3391,7 @@
         <v>424175.51</v>
       </c>
       <c r="J25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -3018,8 +3432,23 @@
       <c r="W25">
         <v>0.03</v>
       </c>
+      <c r="X25">
+        <v>1.34</v>
+      </c>
+      <c r="Y25">
+        <v>31.95</v>
+      </c>
+      <c r="Z25">
+        <v>1.62</v>
+      </c>
       <c r="AC25" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3027,22 +3456,25 @@
       <c r="AG25">
         <v>25.48334503173828</v>
       </c>
-      <c r="AH25" t="s">
-        <v>184</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300458</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>7.92</v>
@@ -3060,7 +3492,7 @@
         <v>284826.83</v>
       </c>
       <c r="J26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -3101,8 +3533,23 @@
       <c r="W26">
         <v>0.83</v>
       </c>
+      <c r="X26">
+        <v>4.33</v>
+      </c>
+      <c r="Y26">
+        <v>48.71</v>
+      </c>
+      <c r="Z26">
+        <v>0.08</v>
+      </c>
       <c r="AC26" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3110,22 +3557,25 @@
       <c r="AG26">
         <v>2.274945259094238</v>
       </c>
-      <c r="AH26" t="s">
-        <v>184</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300465</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>2.72</v>
@@ -3143,7 +3593,7 @@
         <v>90128.09</v>
       </c>
       <c r="J27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -3184,8 +3634,23 @@
       <c r="W27">
         <v>0.86</v>
       </c>
+      <c r="X27">
+        <v>4.57</v>
+      </c>
+      <c r="Y27">
+        <v>21.88</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
       <c r="AC27" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3193,22 +3658,25 @@
       <c r="AG27">
         <v>2.757742166519165</v>
       </c>
-      <c r="AH27" t="s">
-        <v>184</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300469</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>0.45</v>
@@ -3226,7 +3694,7 @@
         <v>38947.5</v>
       </c>
       <c r="J28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K28">
         <v>5</v>
@@ -3267,8 +3735,23 @@
       <c r="W28">
         <v>0.03</v>
       </c>
+      <c r="X28">
+        <v>6.85</v>
+      </c>
+      <c r="Y28">
+        <v>56.8</v>
+      </c>
+      <c r="Z28">
+        <v>5.71</v>
+      </c>
       <c r="AC28" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3276,22 +3759,25 @@
       <c r="AG28">
         <v>2.528588771820068</v>
       </c>
-      <c r="AH28" t="s">
-        <v>184</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300486</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>11.59</v>
@@ -3309,7 +3795,7 @@
         <v>194638.4</v>
       </c>
       <c r="J29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K29">
         <v>6</v>
@@ -3350,8 +3836,23 @@
       <c r="W29">
         <v>-1.42</v>
       </c>
+      <c r="X29">
+        <v>-6.64</v>
+      </c>
+      <c r="Y29">
+        <v>23.89</v>
+      </c>
+      <c r="Z29">
+        <v>-7.04</v>
+      </c>
       <c r="AC29" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>1</v>
@@ -3359,22 +3860,25 @@
       <c r="AG29">
         <v>3.465575456619263</v>
       </c>
-      <c r="AH29" t="s">
-        <v>184</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300491</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>4.28</v>
@@ -3392,7 +3896,7 @@
         <v>44167.09</v>
       </c>
       <c r="J30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -3433,8 +3937,23 @@
       <c r="W30">
         <v>-0.24</v>
       </c>
+      <c r="X30">
+        <v>19.99</v>
+      </c>
+      <c r="Y30">
+        <v>36.5</v>
+      </c>
+      <c r="Z30">
+        <v>17.06</v>
+      </c>
       <c r="AC30" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3442,22 +3961,25 @@
       <c r="AG30">
         <v>0.8294697403907776</v>
       </c>
-      <c r="AH30" t="s">
-        <v>184</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300496</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>16.86</v>
@@ -3475,7 +3997,7 @@
         <v>438034.28</v>
       </c>
       <c r="J31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -3516,8 +4038,23 @@
       <c r="W31">
         <v>-0.18</v>
       </c>
+      <c r="X31">
+        <v>1.84</v>
+      </c>
+      <c r="Y31">
+        <v>79.76000000000001</v>
+      </c>
+      <c r="Z31">
+        <v>-0.55</v>
+      </c>
       <c r="AC31" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3525,22 +4062,25 @@
       <c r="AG31">
         <v>-18.84088134765625</v>
       </c>
-      <c r="AH31" t="s">
-        <v>184</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300499</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>1.72</v>
@@ -3558,7 +4098,7 @@
         <v>214777.32</v>
       </c>
       <c r="J32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K32">
         <v>11</v>
@@ -3599,8 +4139,23 @@
       <c r="W32">
         <v>-1.45</v>
       </c>
+      <c r="X32">
+        <v>3.84</v>
+      </c>
+      <c r="Y32">
+        <v>33.2</v>
+      </c>
+      <c r="Z32">
+        <v>2</v>
+      </c>
       <c r="AC32" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3608,22 +4163,25 @@
       <c r="AG32">
         <v>18.19531440734863</v>
       </c>
-      <c r="AH32" t="s">
-        <v>184</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300502</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>11.27</v>
@@ -3641,7 +4199,7 @@
         <v>1397056.72</v>
       </c>
       <c r="J33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K33">
         <v>46</v>
@@ -3682,8 +4240,23 @@
       <c r="W33">
         <v>0.12</v>
       </c>
+      <c r="X33">
+        <v>15.12</v>
+      </c>
+      <c r="Y33">
+        <v>355.19</v>
+      </c>
+      <c r="Z33">
+        <v>13.18</v>
+      </c>
       <c r="AC33" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3691,22 +4264,25 @@
       <c r="AG33">
         <v>-4.402328968048096</v>
       </c>
-      <c r="AH33" t="s">
-        <v>184</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300503</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>0.9</v>
@@ -3724,7 +4300,7 @@
         <v>69792.75999999999</v>
       </c>
       <c r="J34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -3765,8 +4341,23 @@
       <c r="W34">
         <v>0.44</v>
       </c>
+      <c r="X34">
+        <v>0.26</v>
+      </c>
+      <c r="Y34">
+        <v>30.99</v>
+      </c>
+      <c r="Z34">
+        <v>-1.77</v>
+      </c>
       <c r="AC34" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3774,22 +4365,25 @@
       <c r="AG34">
         <v>2.441790819168091</v>
       </c>
-      <c r="AH34" t="s">
-        <v>184</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300533</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-0.73</v>
@@ -3807,7 +4401,7 @@
         <v>57387.34</v>
       </c>
       <c r="J35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3848,8 +4442,23 @@
       <c r="W35">
         <v>-0.14</v>
       </c>
+      <c r="X35">
+        <v>9.5</v>
+      </c>
+      <c r="Y35">
+        <v>45.95</v>
+      </c>
+      <c r="Z35">
+        <v>6.19</v>
+      </c>
       <c r="AC35" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3857,22 +4466,25 @@
       <c r="AG35">
         <v>6.223261833190918</v>
       </c>
-      <c r="AH35" t="s">
-        <v>184</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300547</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>2.23</v>
@@ -3890,7 +4502,7 @@
         <v>103500.78</v>
       </c>
       <c r="J36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K36">
         <v>9</v>
@@ -3931,8 +4543,23 @@
       <c r="W36">
         <v>0.29</v>
       </c>
+      <c r="X36">
+        <v>5.9</v>
+      </c>
+      <c r="Y36">
+        <v>54.36</v>
+      </c>
+      <c r="Z36">
+        <v>6.07</v>
+      </c>
       <c r="AC36" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3940,22 +4567,25 @@
       <c r="AG36">
         <v>4.380470752716064</v>
       </c>
-      <c r="AH36" t="s">
-        <v>184</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300548</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>13.6</v>
@@ -3973,7 +4603,7 @@
         <v>280365.44</v>
       </c>
       <c r="J37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K37">
         <v>32</v>
@@ -4014,8 +4644,23 @@
       <c r="W37">
         <v>0.52</v>
       </c>
+      <c r="X37">
+        <v>18.84</v>
+      </c>
+      <c r="Y37">
+        <v>160.04</v>
+      </c>
+      <c r="Z37">
+        <v>17.68</v>
+      </c>
       <c r="AC37" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4023,22 +4668,25 @@
       <c r="AG37">
         <v>-6.090137958526611</v>
       </c>
-      <c r="AH37" t="s">
-        <v>184</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300584</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>3</v>
@@ -4056,7 +4704,7 @@
         <v>47377.1</v>
       </c>
       <c r="J38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K38">
         <v>12</v>
@@ -4097,8 +4745,23 @@
       <c r="W38">
         <v>0.36</v>
       </c>
+      <c r="X38">
+        <v>-3.68</v>
+      </c>
+      <c r="Y38">
+        <v>58</v>
+      </c>
+      <c r="Z38">
+        <v>-2.78</v>
+      </c>
       <c r="AC38" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4106,22 +4769,25 @@
       <c r="AG38">
         <v>4.290069580078125</v>
       </c>
-      <c r="AH38" t="s">
-        <v>184</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300593</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>10.51</v>
@@ -4139,7 +4805,7 @@
         <v>81910.73</v>
       </c>
       <c r="J39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K39">
         <v>14</v>
@@ -4180,8 +4846,23 @@
       <c r="W39">
         <v>0.19</v>
       </c>
+      <c r="X39">
+        <v>-1.24</v>
+      </c>
+      <c r="Y39">
+        <v>19.88</v>
+      </c>
+      <c r="Z39">
+        <v>-2.55</v>
+      </c>
       <c r="AC39" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4189,22 +4870,25 @@
       <c r="AG39">
         <v>2.968439817428589</v>
       </c>
-      <c r="AH39" t="s">
-        <v>184</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300598</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-2.67</v>
@@ -4222,7 +4906,7 @@
         <v>107982.58</v>
       </c>
       <c r="J40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -4263,8 +4947,23 @@
       <c r="W40">
         <v>-0.9</v>
       </c>
+      <c r="X40">
+        <v>2.71</v>
+      </c>
+      <c r="Y40">
+        <v>57.8</v>
+      </c>
+      <c r="Z40">
+        <v>-0.22</v>
+      </c>
       <c r="AC40" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4272,22 +4971,25 @@
       <c r="AG40">
         <v>1.224904775619507</v>
       </c>
-      <c r="AH40" t="s">
-        <v>184</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300602</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>3.86</v>
@@ -4305,7 +5007,7 @@
         <v>123475.85</v>
       </c>
       <c r="J41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K41">
         <v>8</v>
@@ -4346,8 +5048,23 @@
       <c r="W41">
         <v>0.34</v>
       </c>
+      <c r="X41">
+        <v>2.04</v>
+      </c>
+      <c r="Y41">
+        <v>33.08</v>
+      </c>
+      <c r="Z41">
+        <v>-3.13</v>
+      </c>
       <c r="AC41" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4355,22 +5072,25 @@
       <c r="AG41">
         <v>4.697679996490479</v>
       </c>
-      <c r="AH41" t="s">
-        <v>184</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300604</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>20</v>
@@ -4388,7 +5108,7 @@
         <v>470486.89</v>
       </c>
       <c r="J42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -4429,8 +5149,23 @@
       <c r="W42">
         <v>2.46</v>
       </c>
+      <c r="X42">
+        <v>2.9</v>
+      </c>
+      <c r="Y42">
+        <v>62.5</v>
+      </c>
+      <c r="Z42">
+        <v>2.24</v>
+      </c>
       <c r="AC42" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4438,22 +5173,25 @@
       <c r="AG42">
         <v>5.124908447265625</v>
       </c>
-      <c r="AH42" t="s">
-        <v>184</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300620</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>3.99</v>
@@ -4471,7 +5209,7 @@
         <v>180452.07</v>
       </c>
       <c r="J43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K43">
         <v>12</v>
@@ -4512,8 +5250,23 @@
       <c r="W43">
         <v>0.25</v>
       </c>
+      <c r="X43">
+        <v>12.21</v>
+      </c>
+      <c r="Y43">
+        <v>103.2</v>
+      </c>
+      <c r="Z43">
+        <v>11.51</v>
+      </c>
       <c r="AC43" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4521,22 +5274,25 @@
       <c r="AG43">
         <v>10.25334167480469</v>
       </c>
-      <c r="AH43" t="s">
-        <v>184</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300642</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-2.84</v>
@@ -4554,7 +5310,7 @@
         <v>47176.28</v>
       </c>
       <c r="J44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K44">
         <v>7</v>
@@ -4595,8 +5351,23 @@
       <c r="W44">
         <v>-0.12</v>
       </c>
+      <c r="X44">
+        <v>-5.41</v>
+      </c>
+      <c r="Y44">
+        <v>29.88</v>
+      </c>
+      <c r="Z44">
+        <v>-1.74</v>
+      </c>
       <c r="AC44" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4604,22 +5375,25 @@
       <c r="AG44">
         <v>6.356499671936035</v>
       </c>
-      <c r="AH44" t="s">
-        <v>184</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300686</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-3.75</v>
@@ -4637,7 +5411,7 @@
         <v>37470.98</v>
       </c>
       <c r="J45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K45">
         <v>5</v>
@@ -4678,8 +5452,23 @@
       <c r="W45">
         <v>-0.63</v>
       </c>
+      <c r="X45">
+        <v>-1.33</v>
+      </c>
+      <c r="Y45">
+        <v>13.51</v>
+      </c>
+      <c r="Z45">
+        <v>-0.66</v>
+      </c>
       <c r="AC45" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4687,22 +5476,25 @@
       <c r="AG45">
         <v>38.04471206665039</v>
       </c>
-      <c r="AH45" t="s">
-        <v>184</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300724</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>0.01</v>
@@ -4720,7 +5512,7 @@
         <v>118666.96</v>
       </c>
       <c r="J46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K46">
         <v>7</v>
@@ -4761,8 +5553,23 @@
       <c r="W46">
         <v>-0.26</v>
       </c>
+      <c r="X46">
+        <v>17.19</v>
+      </c>
+      <c r="Y46">
+        <v>101</v>
+      </c>
+      <c r="Z46">
+        <v>16.39</v>
+      </c>
       <c r="AC46" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4770,22 +5577,25 @@
       <c r="AG46">
         <v>-1.559035539627075</v>
       </c>
-      <c r="AH46" t="s">
-        <v>184</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300727</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>2.8</v>
@@ -4803,7 +5613,7 @@
         <v>36485.15</v>
       </c>
       <c r="J47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K47">
         <v>9</v>
@@ -4844,8 +5654,23 @@
       <c r="W47">
         <v>0.47</v>
       </c>
+      <c r="X47">
+        <v>1.61</v>
+      </c>
+      <c r="Y47">
+        <v>39.05</v>
+      </c>
+      <c r="Z47">
+        <v>-2.47</v>
+      </c>
       <c r="AC47" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4853,22 +5678,25 @@
       <c r="AG47">
         <v>5.800841331481934</v>
       </c>
-      <c r="AH47" t="s">
-        <v>184</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300730</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-3.42</v>
@@ -4886,7 +5714,7 @@
         <v>51692.76</v>
       </c>
       <c r="J48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K48">
         <v>8</v>
@@ -4927,8 +5755,23 @@
       <c r="W48">
         <v>-0.66</v>
       </c>
+      <c r="X48">
+        <v>-1.73</v>
+      </c>
+      <c r="Y48">
+        <v>20.87</v>
+      </c>
+      <c r="Z48">
+        <v>-2.79</v>
+      </c>
       <c r="AC48" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4936,22 +5779,25 @@
       <c r="AG48">
         <v>3.949001550674438</v>
       </c>
-      <c r="AH48" t="s">
-        <v>184</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300740</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>0.17</v>
@@ -4969,7 +5815,7 @@
         <v>60161.67</v>
       </c>
       <c r="J49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K49">
         <v>5</v>
@@ -5010,8 +5856,23 @@
       <c r="W49">
         <v>-0.09</v>
       </c>
+      <c r="X49">
+        <v>-1.43</v>
+      </c>
+      <c r="Y49">
+        <v>24.07</v>
+      </c>
+      <c r="Z49">
+        <v>0.96</v>
+      </c>
       <c r="AC49" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5019,22 +5880,25 @@
       <c r="AG49">
         <v>2.88924765586853</v>
       </c>
-      <c r="AH49" t="s">
-        <v>184</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300748</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>8.58</v>
@@ -5052,7 +5916,7 @@
         <v>457890.51</v>
       </c>
       <c r="J50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K50">
         <v>34</v>
@@ -5093,8 +5957,23 @@
       <c r="W50">
         <v>-0.1</v>
       </c>
+      <c r="X50">
+        <v>6.8</v>
+      </c>
+      <c r="Y50">
+        <v>44.46</v>
+      </c>
+      <c r="Z50">
+        <v>9.48</v>
+      </c>
       <c r="AC50" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5102,22 +5981,25 @@
       <c r="AG50">
         <v>58.22694778442383</v>
       </c>
-      <c r="AH50" t="s">
-        <v>184</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>300757</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>2.1</v>
@@ -5135,7 +6017,7 @@
         <v>226787.61</v>
       </c>
       <c r="J51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K51">
         <v>3</v>
@@ -5176,8 +6058,23 @@
       <c r="W51">
         <v>-0.04</v>
       </c>
+      <c r="X51">
+        <v>0.83</v>
+      </c>
+      <c r="Y51">
+        <v>273</v>
+      </c>
+      <c r="Z51">
+        <v>-0.21</v>
+      </c>
       <c r="AC51" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>1</v>
@@ -5185,22 +6082,25 @@
       <c r="AG51">
         <v>8.36134147644043</v>
       </c>
-      <c r="AH51" t="s">
-        <v>184</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>300767</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>3.61</v>
@@ -5218,7 +6118,7 @@
         <v>54122.51</v>
       </c>
       <c r="J52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K52">
         <v>8</v>
@@ -5259,8 +6159,23 @@
       <c r="W52">
         <v>0.27</v>
       </c>
+      <c r="X52">
+        <v>-5.24</v>
+      </c>
+      <c r="Y52">
+        <v>25.4</v>
+      </c>
+      <c r="Z52">
+        <v>-1.63</v>
+      </c>
       <c r="AC52" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5268,22 +6183,25 @@
       <c r="AG52">
         <v>1.467551946640015</v>
       </c>
-      <c r="AH52" t="s">
-        <v>184</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>300803</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>-4.67</v>
@@ -5301,7 +6219,7 @@
         <v>707344.4399999999</v>
       </c>
       <c r="J53" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K53">
         <v>12</v>
@@ -5342,8 +6260,23 @@
       <c r="W53">
         <v>-0.79</v>
       </c>
+      <c r="X53">
+        <v>3.04</v>
+      </c>
+      <c r="Y53">
+        <v>158.8</v>
+      </c>
+      <c r="Z53">
+        <v>5.04</v>
+      </c>
       <c r="AC53" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5351,22 +6284,25 @@
       <c r="AG53">
         <v>2.471243858337402</v>
       </c>
-      <c r="AH53" t="s">
-        <v>184</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>300806</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>0.46</v>
@@ -5384,7 +6320,7 @@
         <v>65793.53</v>
       </c>
       <c r="J54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K54">
         <v>9</v>
@@ -5425,8 +6361,23 @@
       <c r="W54">
         <v>-1.24</v>
       </c>
+      <c r="X54">
+        <v>2.74</v>
+      </c>
+      <c r="Y54">
+        <v>25.54</v>
+      </c>
+      <c r="Z54">
+        <v>-1.5</v>
+      </c>
       <c r="AC54" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5434,22 +6385,25 @@
       <c r="AG54">
         <v>0.272468775510788</v>
       </c>
-      <c r="AH54" t="s">
-        <v>184</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>300814</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>2.74</v>
@@ -5467,7 +6421,7 @@
         <v>45369.77</v>
       </c>
       <c r="J55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K55">
         <v>8</v>
@@ -5508,8 +6462,23 @@
       <c r="W55">
         <v>0.48</v>
       </c>
+      <c r="X55">
+        <v>5.23</v>
+      </c>
+      <c r="Y55">
+        <v>48.25</v>
+      </c>
+      <c r="Z55">
+        <v>2.25</v>
+      </c>
       <c r="AC55" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5517,22 +6486,25 @@
       <c r="AG55">
         <v>2.630324840545654</v>
       </c>
-      <c r="AH55" t="s">
-        <v>184</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>300835</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>7.74</v>
@@ -5550,7 +6522,7 @@
         <v>70719.39999999999</v>
       </c>
       <c r="J56" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K56">
         <v>27</v>
@@ -5591,8 +6563,23 @@
       <c r="W56">
         <v>-0.65</v>
       </c>
+      <c r="X56">
+        <v>2.02</v>
+      </c>
+      <c r="Y56">
+        <v>68.76000000000001</v>
+      </c>
+      <c r="Z56">
+        <v>1.18</v>
+      </c>
       <c r="AC56" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>1</v>
@@ -5600,22 +6587,25 @@
       <c r="AG56">
         <v>73.90863037109375</v>
       </c>
-      <c r="AH56" t="s">
-        <v>184</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>300843</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>5.63</v>
@@ -5633,7 +6623,7 @@
         <v>71102.87</v>
       </c>
       <c r="J57" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K57">
         <v>9</v>
@@ -5674,8 +6664,23 @@
       <c r="W57">
         <v>0.33</v>
       </c>
+      <c r="X57">
+        <v>17.28</v>
+      </c>
+      <c r="Y57">
+        <v>66.38</v>
+      </c>
+      <c r="Z57">
+        <v>19.02</v>
+      </c>
       <c r="AC57" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5683,22 +6688,25 @@
       <c r="AG57">
         <v>4.766025066375732</v>
       </c>
-      <c r="AH57" t="s">
-        <v>184</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>300870</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>8.4</v>
@@ -5716,7 +6724,7 @@
         <v>193269.17</v>
       </c>
       <c r="J58" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K58">
         <v>11</v>
@@ -5757,8 +6765,23 @@
       <c r="W58">
         <v>-0.03</v>
       </c>
+      <c r="X58">
+        <v>6.89</v>
+      </c>
+      <c r="Y58">
+        <v>281.9</v>
+      </c>
+      <c r="Z58">
+        <v>4.07</v>
+      </c>
       <c r="AC58" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5766,22 +6789,25 @@
       <c r="AG58">
         <v>5.411754608154297</v>
       </c>
-      <c r="AH58" t="s">
-        <v>184</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>300913</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>1.87</v>
@@ -5799,7 +6825,7 @@
         <v>61351.33</v>
       </c>
       <c r="J59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K59">
         <v>7</v>
@@ -5840,8 +6866,23 @@
       <c r="W59">
         <v>0.03</v>
       </c>
+      <c r="X59">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Y59">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="Z59">
+        <v>15.65</v>
+      </c>
       <c r="AC59" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5849,22 +6890,25 @@
       <c r="AG59">
         <v>2.574861526489258</v>
       </c>
-      <c r="AH59" t="s">
-        <v>184</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>300991</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>4.48</v>
@@ -5882,7 +6926,7 @@
         <v>32470.07</v>
       </c>
       <c r="J60" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K60">
         <v>4</v>
@@ -5923,8 +6967,23 @@
       <c r="W60">
         <v>0.89</v>
       </c>
+      <c r="X60">
+        <v>2.56</v>
+      </c>
+      <c r="Y60">
+        <v>44.98</v>
+      </c>
+      <c r="Z60">
+        <v>1.6</v>
+      </c>
       <c r="AC60" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5932,22 +6991,25 @@
       <c r="AG60">
         <v>-1.41264271736145</v>
       </c>
-      <c r="AH60" t="s">
-        <v>184</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301008</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>9.77</v>
@@ -5965,7 +7027,7 @@
         <v>48047.71</v>
       </c>
       <c r="J61" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -6006,8 +7068,23 @@
       <c r="W61">
         <v>0.34</v>
       </c>
+      <c r="X61">
+        <v>-2.68</v>
+      </c>
+      <c r="Y61">
+        <v>35.01</v>
+      </c>
+      <c r="Z61">
+        <v>-1.44</v>
+      </c>
       <c r="AC61" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6015,22 +7092,25 @@
       <c r="AG61">
         <v>2.126934051513672</v>
       </c>
-      <c r="AH61" t="s">
-        <v>184</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301018</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>4.58</v>
@@ -6048,7 +7128,7 @@
         <v>101636.9</v>
       </c>
       <c r="J62" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K62">
         <v>11</v>
@@ -6089,8 +7169,23 @@
       <c r="W62">
         <v>-0.47</v>
       </c>
+      <c r="X62">
+        <v>12.28</v>
+      </c>
+      <c r="Y62">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="Z62">
+        <v>10.77</v>
+      </c>
       <c r="AC62" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>1</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6098,22 +7193,25 @@
       <c r="AG62">
         <v>-7.312799453735352</v>
       </c>
-      <c r="AH62" t="s">
-        <v>184</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301095</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>2.48</v>
@@ -6131,7 +7229,7 @@
         <v>41529.14</v>
       </c>
       <c r="J63" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K63">
         <v>21</v>
@@ -6172,8 +7270,23 @@
       <c r="W63">
         <v>-0.03</v>
       </c>
+      <c r="X63">
+        <v>5.55</v>
+      </c>
+      <c r="Y63">
+        <v>93.2</v>
+      </c>
+      <c r="Z63">
+        <v>-0.06</v>
+      </c>
       <c r="AC63" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>1</v>
@@ -6181,22 +7294,25 @@
       <c r="AG63">
         <v>6.404995918273926</v>
       </c>
-      <c r="AH63" t="s">
-        <v>184</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301128</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>3.06</v>
@@ -6214,7 +7330,7 @@
         <v>94270.21000000001</v>
       </c>
       <c r="J64" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K64">
         <v>11</v>
@@ -6255,8 +7371,23 @@
       <c r="W64">
         <v>-0.1</v>
       </c>
+      <c r="X64">
+        <v>2.39</v>
+      </c>
+      <c r="Y64">
+        <v>105.5</v>
+      </c>
+      <c r="Z64">
+        <v>-1.48</v>
+      </c>
       <c r="AC64" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6264,22 +7395,25 @@
       <c r="AG64">
         <v>-1.171466469764709</v>
       </c>
-      <c r="AH64" t="s">
-        <v>184</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301165</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>3.15</v>
@@ -6297,7 +7431,7 @@
         <v>93016.03999999999</v>
       </c>
       <c r="J65" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K65">
         <v>12</v>
@@ -6338,8 +7472,23 @@
       <c r="W65">
         <v>-0.02</v>
       </c>
+      <c r="X65">
+        <v>5.65</v>
+      </c>
+      <c r="Y65">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="Z65">
+        <v>3.46</v>
+      </c>
       <c r="AC65" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6347,22 +7496,25 @@
       <c r="AG65">
         <v>5.505913257598877</v>
       </c>
-      <c r="AH65" t="s">
-        <v>184</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301183</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>20</v>
@@ -6380,7 +7532,7 @@
         <v>123009.02</v>
       </c>
       <c r="J66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K66">
         <v>7</v>
@@ -6421,8 +7573,23 @@
       <c r="W66">
         <v>2.12</v>
       </c>
+      <c r="X66">
+        <v>15.38</v>
+      </c>
+      <c r="Y66">
+        <v>115</v>
+      </c>
+      <c r="Z66">
+        <v>19.51</v>
+      </c>
       <c r="AC66" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD66">
+        <v>1</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
       </c>
       <c r="AF66">
         <v>1</v>
@@ -6430,22 +7597,25 @@
       <c r="AG66">
         <v>11.18518161773682</v>
       </c>
-      <c r="AH66" t="s">
-        <v>185</v>
+      <c r="AH66">
+        <v>1</v>
+      </c>
+      <c r="AI66">
+        <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301217</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>2.48</v>
@@ -6463,7 +7633,7 @@
         <v>123213.24</v>
       </c>
       <c r="J67" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K67">
         <v>38</v>
@@ -6504,8 +7674,23 @@
       <c r="W67">
         <v>0.21</v>
       </c>
+      <c r="X67">
+        <v>4.76</v>
+      </c>
+      <c r="Y67">
+        <v>35.57</v>
+      </c>
+      <c r="Z67">
+        <v>2.54</v>
+      </c>
       <c r="AC67" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6513,22 +7698,25 @@
       <c r="AG67">
         <v>8.827494621276855</v>
       </c>
-      <c r="AH67" t="s">
-        <v>184</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301316</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>1.83</v>
@@ -6546,7 +7734,7 @@
         <v>89669.55</v>
       </c>
       <c r="J68" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -6587,8 +7775,23 @@
       <c r="W68">
         <v>0.32</v>
       </c>
+      <c r="X68">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y68">
+        <v>61.15</v>
+      </c>
+      <c r="Z68">
+        <v>2.74</v>
+      </c>
       <c r="AC68" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6596,22 +7799,25 @@
       <c r="AG68">
         <v>16.80033493041992</v>
       </c>
-      <c r="AH68" t="s">
-        <v>184</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301363</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>8.859999999999999</v>
@@ -6629,7 +7835,7 @@
         <v>80229.91</v>
       </c>
       <c r="J69" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -6670,8 +7876,23 @@
       <c r="W69">
         <v>0.27</v>
       </c>
+      <c r="X69">
+        <v>-1.64</v>
+      </c>
+      <c r="Y69">
+        <v>26.32</v>
+      </c>
+      <c r="Z69">
+        <v>-1.28</v>
+      </c>
       <c r="AC69" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6679,22 +7900,25 @@
       <c r="AG69">
         <v>-2.562160491943359</v>
       </c>
-      <c r="AH69" t="s">
-        <v>184</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301377</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-2.04</v>
@@ -6712,7 +7936,7 @@
         <v>38259.42</v>
       </c>
       <c r="J70" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K70">
         <v>13</v>
@@ -6753,8 +7977,23 @@
       <c r="W70">
         <v>-0.73</v>
       </c>
+      <c r="X70">
+        <v>8.66</v>
+      </c>
+      <c r="Y70">
+        <v>77.98</v>
+      </c>
+      <c r="Z70">
+        <v>5.71</v>
+      </c>
       <c r="AC70" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6762,22 +8001,25 @@
       <c r="AG70">
         <v>0.4852838218212128</v>
       </c>
-      <c r="AH70" t="s">
-        <v>184</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301389</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>20</v>
@@ -6795,7 +8037,7 @@
         <v>141414.9</v>
       </c>
       <c r="J71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K71">
         <v>37</v>
@@ -6836,8 +8078,23 @@
       <c r="W71">
         <v>5.55</v>
       </c>
+      <c r="X71">
+        <v>20.01</v>
+      </c>
+      <c r="Y71">
+        <v>72.58</v>
+      </c>
+      <c r="Z71">
+        <v>20.01</v>
+      </c>
       <c r="AC71" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6845,22 +8102,25 @@
       <c r="AG71">
         <v>3.590907335281372</v>
       </c>
-      <c r="AH71" t="s">
-        <v>184</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301413</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>3.11</v>
@@ -6878,7 +8138,7 @@
         <v>38791.36</v>
       </c>
       <c r="J72" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K72">
         <v>4</v>
@@ -6919,8 +8179,23 @@
       <c r="W72">
         <v>0.17</v>
       </c>
+      <c r="X72">
+        <v>-2.14</v>
+      </c>
+      <c r="Y72">
+        <v>121.82</v>
+      </c>
+      <c r="Z72">
+        <v>-2.72</v>
+      </c>
       <c r="AC72" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6928,22 +8203,25 @@
       <c r="AG72">
         <v>4.353308200836182</v>
       </c>
-      <c r="AH72" t="s">
-        <v>184</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301486</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>1.35</v>
@@ -6961,7 +8239,7 @@
         <v>57079.33</v>
       </c>
       <c r="J73" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K73">
         <v>11</v>
@@ -7002,8 +8280,23 @@
       <c r="W73">
         <v>-0.48</v>
       </c>
+      <c r="X73">
+        <v>3.12</v>
+      </c>
+      <c r="Y73">
+        <v>94.65000000000001</v>
+      </c>
+      <c r="Z73">
+        <v>-0.38</v>
+      </c>
       <c r="AC73" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -7011,22 +8304,25 @@
       <c r="AG73">
         <v>0.9493142366409302</v>
       </c>
-      <c r="AH73" t="s">
-        <v>184</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>301526</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>0.15</v>
@@ -7044,7 +8340,7 @@
         <v>78899.09</v>
       </c>
       <c r="J74" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K74">
         <v>15</v>
@@ -7085,8 +8381,23 @@
       <c r="W74">
         <v>0.29</v>
       </c>
+      <c r="X74">
+        <v>19.97</v>
+      </c>
+      <c r="Y74">
+        <v>7.87</v>
+      </c>
+      <c r="Z74">
+        <v>14.72</v>
+      </c>
       <c r="AC74" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>1</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7094,22 +8405,25 @@
       <c r="AG74">
         <v>3.040072917938232</v>
       </c>
-      <c r="AH74" t="s">
-        <v>184</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>301603</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>3.23</v>
@@ -7127,7 +8441,7 @@
         <v>58875.17</v>
       </c>
       <c r="J75" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -7168,8 +8482,23 @@
       <c r="W75">
         <v>1.09</v>
       </c>
+      <c r="X75">
+        <v>12.77</v>
+      </c>
+      <c r="Y75">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="Z75">
+        <v>11.82</v>
+      </c>
       <c r="AC75" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>1</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7177,22 +8506,25 @@
       <c r="AG75">
         <v>0.6000714898109436</v>
       </c>
-      <c r="AH75" t="s">
-        <v>184</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>301617</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>10.32</v>
@@ -7210,7 +8542,7 @@
         <v>43856.66</v>
       </c>
       <c r="J76" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K76">
         <v>4</v>
@@ -7251,8 +8583,23 @@
       <c r="W76">
         <v>0.82</v>
       </c>
+      <c r="X76">
+        <v>4.69</v>
+      </c>
+      <c r="Y76">
+        <v>63.02</v>
+      </c>
+      <c r="Z76">
+        <v>5.81</v>
+      </c>
       <c r="AC76" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7260,22 +8607,25 @@
       <c r="AG76">
         <v>1.19299840927124</v>
       </c>
-      <c r="AH76" t="s">
-        <v>184</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>688007</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>4.28</v>
@@ -7293,7 +8643,7 @@
         <v>57549.08</v>
       </c>
       <c r="J77" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -7334,8 +8684,23 @@
       <c r="W77">
         <v>0.76</v>
       </c>
+      <c r="X77">
+        <v>0.22</v>
+      </c>
+      <c r="Y77">
+        <v>22.98</v>
+      </c>
+      <c r="Z77">
+        <v>-1.79</v>
+      </c>
       <c r="AC77" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7343,22 +8708,25 @@
       <c r="AG77">
         <v>1.856856822967529</v>
       </c>
-      <c r="AH77" t="s">
-        <v>184</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>688041</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>1.61</v>
@@ -7376,7 +8744,7 @@
         <v>735766.0699999999</v>
       </c>
       <c r="J78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -7417,8 +8785,23 @@
       <c r="W78">
         <v>-0.05</v>
       </c>
+      <c r="X78">
+        <v>6.8</v>
+      </c>
+      <c r="Y78">
+        <v>205.69</v>
+      </c>
+      <c r="Z78">
+        <v>2.64</v>
+      </c>
       <c r="AC78" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7426,22 +8809,25 @@
       <c r="AG78">
         <v>39.87334060668945</v>
       </c>
-      <c r="AH78" t="s">
-        <v>184</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>688048</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>7.51</v>
@@ -7459,7 +8845,7 @@
         <v>66133.84</v>
       </c>
       <c r="J79" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K79">
         <v>18</v>
@@ -7500,8 +8886,23 @@
       <c r="W79">
         <v>0.06</v>
       </c>
+      <c r="X79">
+        <v>10.11</v>
+      </c>
+      <c r="Y79">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="Z79">
+        <v>4.7</v>
+      </c>
       <c r="AC79" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7509,22 +8910,25 @@
       <c r="AG79">
         <v>3.141603231430054</v>
       </c>
-      <c r="AH79" t="s">
-        <v>184</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>688049</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>18.12</v>
@@ -7542,7 +8946,7 @@
         <v>125801.16</v>
       </c>
       <c r="J80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K80">
         <v>10</v>
@@ -7583,8 +8987,23 @@
       <c r="W80">
         <v>0.13</v>
       </c>
+      <c r="X80">
+        <v>1.81</v>
+      </c>
+      <c r="Y80">
+        <v>65</v>
+      </c>
+      <c r="Z80">
+        <v>-2.15</v>
+      </c>
       <c r="AC80" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>1</v>
@@ -7592,22 +9011,25 @@
       <c r="AG80">
         <v>19.84548950195312</v>
       </c>
-      <c r="AH80" t="s">
-        <v>185</v>
+      <c r="AH80">
+        <v>1</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>688062</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>11.84</v>
@@ -7625,7 +9047,7 @@
         <v>84656.32000000001</v>
       </c>
       <c r="J81" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -7666,8 +9088,23 @@
       <c r="W81">
         <v>-0.92</v>
       </c>
+      <c r="X81">
+        <v>1.82</v>
+      </c>
+      <c r="Y81">
+        <v>48.6</v>
+      </c>
+      <c r="Z81">
+        <v>2.25</v>
+      </c>
       <c r="AC81" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>1</v>
@@ -7675,22 +9112,25 @@
       <c r="AG81">
         <v>12.09319305419922</v>
       </c>
-      <c r="AH81" t="s">
-        <v>184</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>688066</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>-8.09</v>
@@ -7708,7 +9148,7 @@
         <v>135541.24</v>
       </c>
       <c r="J82" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K82">
         <v>3</v>
@@ -7749,8 +9189,23 @@
       <c r="W82">
         <v>-2.11</v>
       </c>
+      <c r="X82">
+        <v>-3.89</v>
+      </c>
+      <c r="Y82">
+        <v>35.97</v>
+      </c>
+      <c r="Z82">
+        <v>6.93</v>
+      </c>
       <c r="AC82" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7758,22 +9213,25 @@
       <c r="AG82">
         <v>-0.2164639532566071</v>
       </c>
-      <c r="AH82" t="s">
-        <v>184</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>688110</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>1.63</v>
@@ -7791,7 +9249,7 @@
         <v>211903.76</v>
       </c>
       <c r="J83" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K83">
         <v>4</v>
@@ -7832,8 +9290,23 @@
       <c r="W83">
         <v>-0.54</v>
       </c>
+      <c r="X83">
+        <v>16.43</v>
+      </c>
+      <c r="Y83">
+        <v>119.57</v>
+      </c>
+      <c r="Z83">
+        <v>17.63</v>
+      </c>
       <c r="AC83" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD83">
+        <v>1</v>
+      </c>
+      <c r="AE83">
+        <v>1</v>
       </c>
       <c r="AF83">
         <v>1</v>
@@ -7841,22 +9314,25 @@
       <c r="AG83">
         <v>29.74623870849609</v>
       </c>
-      <c r="AH83" t="s">
-        <v>184</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>688146</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>4.77</v>
@@ -7874,7 +9350,7 @@
         <v>36476.69</v>
       </c>
       <c r="J84" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K84">
         <v>11</v>
@@ -7915,8 +9391,23 @@
       <c r="W84">
         <v>-0.21</v>
       </c>
+      <c r="X84">
+        <v>2.81</v>
+      </c>
+      <c r="Y84">
+        <v>43.5</v>
+      </c>
+      <c r="Z84">
+        <v>-1.98</v>
+      </c>
       <c r="AC84" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7924,22 +9415,25 @@
       <c r="AG84">
         <v>0.3741271793842316</v>
       </c>
-      <c r="AH84" t="s">
-        <v>184</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>688167</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>0.59</v>
@@ -7957,7 +9451,7 @@
         <v>66941</v>
       </c>
       <c r="J85" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K85">
         <v>16</v>
@@ -7998,8 +9492,23 @@
       <c r="W85">
         <v>-0.48</v>
       </c>
+      <c r="X85">
+        <v>6.47</v>
+      </c>
+      <c r="Y85">
+        <v>132.89</v>
+      </c>
+      <c r="Z85">
+        <v>-0.55</v>
+      </c>
       <c r="AC85" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -8007,22 +9516,25 @@
       <c r="AG85">
         <v>0.5121873021125793</v>
       </c>
-      <c r="AH85" t="s">
-        <v>184</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>688195</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>5.32</v>
@@ -8040,7 +9552,7 @@
         <v>45105.63</v>
       </c>
       <c r="J86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K86">
         <v>8</v>
@@ -8081,8 +9593,23 @@
       <c r="W86">
         <v>0.51</v>
       </c>
+      <c r="X86">
+        <v>10.53</v>
+      </c>
+      <c r="Y86">
+        <v>69.66</v>
+      </c>
+      <c r="Z86">
+        <v>7.9</v>
+      </c>
       <c r="AC86" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>1</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8090,22 +9617,25 @@
       <c r="AG86">
         <v>2.568514823913574</v>
       </c>
-      <c r="AH86" t="s">
-        <v>184</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>688205</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>11.79</v>
@@ -8123,7 +9653,7 @@
         <v>104398.98</v>
       </c>
       <c r="J87" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K87">
         <v>4</v>
@@ -8164,8 +9694,23 @@
       <c r="W87">
         <v>0.43</v>
       </c>
+      <c r="X87">
+        <v>15.6</v>
+      </c>
+      <c r="Y87">
+        <v>120</v>
+      </c>
+      <c r="Z87">
+        <v>12.93</v>
+      </c>
       <c r="AC87" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>1</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -8173,22 +9718,25 @@
       <c r="AG87">
         <v>-1.655310034751892</v>
       </c>
-      <c r="AH87" t="s">
-        <v>184</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>688256</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>6.01</v>
@@ -8206,7 +9754,7 @@
         <v>1499840.51</v>
       </c>
       <c r="J88" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K88">
         <v>3</v>
@@ -8247,8 +9795,23 @@
       <c r="W88">
         <v>0.04</v>
       </c>
+      <c r="X88">
+        <v>15.73</v>
+      </c>
+      <c r="Y88">
+        <v>1595.88</v>
+      </c>
+      <c r="Z88">
+        <v>13.27</v>
+      </c>
       <c r="AC88" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>1</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8256,22 +9819,25 @@
       <c r="AG88">
         <v>2.145373344421387</v>
       </c>
-      <c r="AH88" t="s">
-        <v>184</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>688270</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>4.77</v>
@@ -8289,7 +9855,7 @@
         <v>78767.42</v>
       </c>
       <c r="J89" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K89">
         <v>11</v>
@@ -8330,8 +9896,23 @@
       <c r="W89">
         <v>-0.03</v>
       </c>
+      <c r="X89">
+        <v>15.42</v>
+      </c>
+      <c r="Y89">
+        <v>82.58</v>
+      </c>
+      <c r="Z89">
+        <v>11.22</v>
+      </c>
       <c r="AC89" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>1</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8339,22 +9920,25 @@
       <c r="AG89">
         <v>2.641950845718384</v>
       </c>
-      <c r="AH89" t="s">
-        <v>184</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>688313</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>18.25</v>
@@ -8372,7 +9956,7 @@
         <v>284322.18</v>
       </c>
       <c r="J90" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K90">
         <v>12</v>
@@ -8413,8 +9997,23 @@
       <c r="W90">
         <v>0.55</v>
       </c>
+      <c r="X90">
+        <v>6.38</v>
+      </c>
+      <c r="Y90">
+        <v>87.44</v>
+      </c>
+      <c r="Z90">
+        <v>4.92</v>
+      </c>
       <c r="AC90" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8422,22 +10021,25 @@
       <c r="AG90">
         <v>10.24509143829346</v>
       </c>
-      <c r="AH90" t="s">
-        <v>184</v>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>688343</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>18.62</v>
@@ -8455,7 +10057,7 @@
         <v>354393.73</v>
       </c>
       <c r="J91" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K91">
         <v>2</v>
@@ -8496,8 +10098,23 @@
       <c r="W91">
         <v>0.22</v>
       </c>
+      <c r="X91">
+        <v>1.55</v>
+      </c>
+      <c r="Y91">
+        <v>95.84999999999999</v>
+      </c>
+      <c r="Z91">
+        <v>-1.01</v>
+      </c>
       <c r="AC91" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -8505,22 +10122,25 @@
       <c r="AG91">
         <v>4.272349834442139</v>
       </c>
-      <c r="AH91" t="s">
-        <v>184</v>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>688372</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>3.72</v>
@@ -8538,7 +10158,7 @@
         <v>44060.57</v>
       </c>
       <c r="J92" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K92">
         <v>5</v>
@@ -8579,8 +10199,23 @@
       <c r="W92">
         <v>0.15</v>
       </c>
+      <c r="X92">
+        <v>4.88</v>
+      </c>
+      <c r="Y92">
+        <v>81.70999999999999</v>
+      </c>
+      <c r="Z92">
+        <v>-1.38</v>
+      </c>
       <c r="AC92" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -8588,22 +10223,25 @@
       <c r="AG92">
         <v>5.694607734680176</v>
       </c>
-      <c r="AH92" t="s">
-        <v>184</v>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>688498</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>14.27</v>
@@ -8621,7 +10259,7 @@
         <v>104548.02</v>
       </c>
       <c r="J93" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K93">
         <v>12</v>
@@ -8662,8 +10300,23 @@
       <c r="W93">
         <v>0.49</v>
       </c>
+      <c r="X93">
+        <v>6.77</v>
+      </c>
+      <c r="Y93">
+        <v>320.14</v>
+      </c>
+      <c r="Z93">
+        <v>3.27</v>
+      </c>
       <c r="AC93" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -8671,22 +10324,25 @@
       <c r="AG93">
         <v>9.194506645202637</v>
       </c>
-      <c r="AH93" t="s">
-        <v>184</v>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>688502</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94">
         <v>3.34</v>
@@ -8704,7 +10360,7 @@
         <v>40054.15</v>
       </c>
       <c r="J94" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K94">
         <v>23</v>
@@ -8745,8 +10401,23 @@
       <c r="W94">
         <v>0.17</v>
       </c>
+      <c r="X94">
+        <v>13.71</v>
+      </c>
+      <c r="Y94">
+        <v>481</v>
+      </c>
+      <c r="Z94">
+        <v>9.01</v>
+      </c>
       <c r="AC94" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>1</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -8754,22 +10425,25 @@
       <c r="AG94">
         <v>-2.708072900772095</v>
       </c>
-      <c r="AH94" t="s">
-        <v>184</v>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>688508</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95">
         <v>11.96</v>
@@ -8787,7 +10461,7 @@
         <v>62155.51</v>
       </c>
       <c r="J95" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K95">
         <v>6</v>
@@ -8828,8 +10502,23 @@
       <c r="W95">
         <v>0.8</v>
       </c>
+      <c r="X95">
+        <v>2.96</v>
+      </c>
+      <c r="Y95">
+        <v>73.64</v>
+      </c>
+      <c r="Z95">
+        <v>1.27</v>
+      </c>
       <c r="AC95" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -8837,22 +10526,25 @@
       <c r="AG95">
         <v>2.067512273788452</v>
       </c>
-      <c r="AH95" t="s">
-        <v>184</v>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>688521</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E96">
         <v>8.19</v>
@@ -8870,7 +10562,7 @@
         <v>326310.07</v>
       </c>
       <c r="J96" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K96">
         <v>6</v>
@@ -8911,8 +10603,23 @@
       <c r="W96">
         <v>0.29</v>
       </c>
+      <c r="X96">
+        <v>6.99</v>
+      </c>
+      <c r="Y96">
+        <v>153</v>
+      </c>
+      <c r="Z96">
+        <v>-1.23</v>
+      </c>
       <c r="AC96" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -8920,22 +10627,25 @@
       <c r="AG96">
         <v>2.327454328536987</v>
       </c>
-      <c r="AH96" t="s">
-        <v>184</v>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>688629</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97">
         <v>1.49</v>
@@ -8953,7 +10663,7 @@
         <v>196458.97</v>
       </c>
       <c r="J97" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K97">
         <v>3</v>
@@ -8994,8 +10704,23 @@
       <c r="W97">
         <v>-0.75</v>
       </c>
+      <c r="X97">
+        <v>15.12</v>
+      </c>
+      <c r="Y97">
+        <v>94.3</v>
+      </c>
+      <c r="Z97">
+        <v>15.25</v>
+      </c>
       <c r="AC97" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>1</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -9003,22 +10728,25 @@
       <c r="AG97">
         <v>7.228949069976807</v>
       </c>
-      <c r="AH97" t="s">
-        <v>184</v>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C98">
         <v>688652</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E98">
         <v>4.53</v>
@@ -9036,7 +10764,7 @@
         <v>32713.22</v>
       </c>
       <c r="J98" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K98">
         <v>4</v>
@@ -9077,8 +10805,23 @@
       <c r="W98">
         <v>0.18</v>
       </c>
+      <c r="X98">
+        <v>6.15</v>
+      </c>
+      <c r="Y98">
+        <v>79</v>
+      </c>
+      <c r="Z98">
+        <v>2.46</v>
+      </c>
       <c r="AC98" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
       </c>
       <c r="AF98">
         <v>0</v>
@@ -9086,22 +10829,25 @@
       <c r="AG98">
         <v>1.916053891181946</v>
       </c>
-      <c r="AH98" t="s">
-        <v>184</v>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C99">
         <v>688709</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E99">
         <v>4.83</v>
@@ -9119,7 +10865,7 @@
         <v>45221.11</v>
       </c>
       <c r="J99" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K99">
         <v>4</v>
@@ -9160,8 +10906,23 @@
       <c r="W99">
         <v>0.12</v>
       </c>
+      <c r="X99">
+        <v>1.82</v>
+      </c>
+      <c r="Y99">
+        <v>46.18</v>
+      </c>
+      <c r="Z99">
+        <v>-2.33</v>
+      </c>
       <c r="AC99" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
       </c>
       <c r="AF99">
         <v>0</v>
@@ -9169,22 +10930,25 @@
       <c r="AG99">
         <v>4.098494529724121</v>
       </c>
-      <c r="AH99" t="s">
-        <v>184</v>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C100">
         <v>688787</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E100">
         <v>-3.29</v>
@@ -9202,7 +10966,7 @@
         <v>88377.37</v>
       </c>
       <c r="J100" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K100">
         <v>1</v>
@@ -9243,8 +11007,23 @@
       <c r="W100">
         <v>0</v>
       </c>
+      <c r="X100">
+        <v>4.31</v>
+      </c>
+      <c r="Y100">
+        <v>158</v>
+      </c>
+      <c r="Z100">
+        <v>7.48</v>
+      </c>
       <c r="AC100" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>1</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -9252,22 +11031,25 @@
       <c r="AG100">
         <v>-9.913407325744629</v>
       </c>
-      <c r="AH100" t="s">
-        <v>184</v>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C101">
         <v>688798</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E101">
         <v>3.07</v>
@@ -9285,7 +11067,7 @@
         <v>48872.01</v>
       </c>
       <c r="J101" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K101">
         <v>6</v>
@@ -9326,8 +11108,23 @@
       <c r="W101">
         <v>-0.09</v>
       </c>
+      <c r="X101">
+        <v>3.89</v>
+      </c>
+      <c r="Y101">
+        <v>99.3</v>
+      </c>
+      <c r="Z101">
+        <v>0.65</v>
+      </c>
       <c r="AC101" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
       </c>
       <c r="AF101">
         <v>0</v>
@@ -9335,8 +11132,11 @@
       <c r="AG101">
         <v>6.430778503417969</v>
       </c>
-      <c r="AH101" t="s">
-        <v>184</v>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
